--- a/doc/スケジュール.xlsx
+++ b/doc/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EF614-286D-47C6-9AF4-16474083CF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A0557-940D-48E7-AD54-A783B852778C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="924" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{0F83651E-F0A7-4F2E-8B29-A7609FE7CEED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0F83651E-F0A7-4F2E-8B29-A7609FE7CEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>◆スケジュール</t>
     <phoneticPr fontId="2"/>
@@ -135,28 +135,6 @@
     <t>金</t>
   </si>
   <si>
-    <t>高等技術専門校様訪問</t>
-    <rPh sb="0" eb="2">
-      <t>コウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プレ発表</t>
     <rPh sb="2" eb="4">
       <t>ハッピョウ</t>
@@ -236,29 +214,6 @@
     <t>⑤VScodeインストール(完了)</t>
     <rPh sb="14" eb="16">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境設定(Github,SourceTree,Ubuntu)</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境設定(Laravel Sail をDocker と連携)</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>レンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -761,31 +716,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>環境構築(Dockerの不具合で再インストール　コンテナ消去、laravelも再インストール)　MySQL接続を試みる</t>
-    <rPh sb="0" eb="4">
-      <t>カンキョウコウチク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショウキョ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ココロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本格的に筋トレを初めを始めようと思い
 成果や結果を管理できるアプリが欲しいと思った事</t>
     <rPh sb="0" eb="3">
@@ -1045,21 +975,95 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>挙動編集　検索機能追加　CSS編集</t>
+    <t>edit.blade.php を調整(完成)　genruTable Seeder作成完了 gerusTableにカラム1つ追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境構築(Github,SourceTree,Ubuntu)</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境構築(Laravel Sail をDocker と連携)</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境構築(Dockerの不具合で再インストール　コンテナ消去、laravelも再インストール)　phpmyadmin接続を試みる</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>挙動編集(モーダル遷移排除)　検索機能追加　CSS編集</t>
     <rPh sb="0" eb="2">
       <t>キョドウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="5" eb="9">
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
       <t>ケンサクキノウ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="19" eb="21">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="25" eb="27">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドキュメント関連更新　PowerPoint 作成　追加機能　体重管理(chart.js)学習</t>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ツイカキノウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>タイジュウカンリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2176,8 +2180,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1675504" y="1669332"/>
-          <a:ext cx="23223489" cy="8863759"/>
+          <a:off x="1671694" y="1615207"/>
+          <a:ext cx="23223489" cy="8525006"/>
           <a:chOff x="1675504" y="1613302"/>
           <a:chExt cx="23223489" cy="8523101"/>
         </a:xfrm>
@@ -6460,8 +6464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC0688-24E0-415E-A615-5B31EE133137}">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6507,7 +6511,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
@@ -6524,7 +6528,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
@@ -6537,7 +6541,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
@@ -6550,7 +6554,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
@@ -6564,10 +6568,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
@@ -6581,10 +6585,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
@@ -6597,7 +6601,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
@@ -6610,7 +6614,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
@@ -6664,7 +6668,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -6678,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -6692,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -6706,7 +6710,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -6750,7 +6754,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -6765,7 +6769,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
@@ -6779,7 +6783,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
@@ -6793,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
@@ -6840,8 +6844,8 @@
       <c r="D33" s="7">
         <v>13</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
+      <c r="E33" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -6854,7 +6858,9 @@
       <c r="D34" s="7">
         <v>14</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -6867,7 +6873,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
@@ -6925,7 +6931,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
@@ -6939,7 +6945,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6966,13 +6972,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7013,7 +7019,7 @@
     <row r="2" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="B2" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -7028,10 +7034,10 @@
     <row r="3" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -7042,10 +7048,10 @@
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
       <c r="M3" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
@@ -7070,7 +7076,7 @@
       <c r="K4" s="35"/>
       <c r="M4" s="43"/>
       <c r="N4" s="45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="46"/>
       <c r="P4" s="46"/>
@@ -7084,10 +7090,10 @@
     <row r="5" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="16"/>
       <c r="B5" s="36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -7099,7 +7105,7 @@
       <c r="K5" s="32"/>
       <c r="M5" s="44"/>
       <c r="N5" s="48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
@@ -7126,10 +7132,10 @@
     <row r="7" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -7156,10 +7162,10 @@
     <row r="9" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -7174,7 +7180,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="43"/>
       <c r="C10" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -7189,7 +7195,7 @@
       <c r="A11" s="16"/>
       <c r="B11" s="43"/>
       <c r="C11" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
@@ -7319,7 +7325,7 @@
     </row>
     <row r="18" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -7333,7 +7339,7 @@
       <c r="L18" s="59"/>
       <c r="M18" s="60"/>
       <c r="O18" s="81" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
@@ -7377,7 +7383,7 @@
       <c r="B20" s="19"/>
       <c r="C20" s="22"/>
       <c r="D20" s="78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
@@ -7386,14 +7392,14 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L20" s="79"/>
       <c r="M20" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P20" s="83"/>
       <c r="Q20" s="83"/>
@@ -7409,11 +7415,11 @@
     </row>
     <row r="21" spans="2:26" s="15" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -7425,7 +7431,7 @@
       <c r="L21" s="52"/>
       <c r="M21" s="24"/>
       <c r="O21" s="54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P21" s="85"/>
       <c r="Q21" s="85"/>
@@ -7441,11 +7447,11 @@
     </row>
     <row r="22" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="68"/>
@@ -7454,12 +7460,12 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="80" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L22" s="80"/>
       <c r="M22" s="14"/>
       <c r="O22" s="54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P22" s="85"/>
       <c r="Q22" s="85"/>
@@ -7477,7 +7483,7 @@
       <c r="B23" s="74"/>
       <c r="C23" s="75"/>
       <c r="D23" s="67" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="68"/>
       <c r="F23" s="68"/>
@@ -7486,7 +7492,7 @@
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L23" s="80"/>
       <c r="M23" s="14"/>
@@ -7507,7 +7513,7 @@
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
       <c r="D24" s="67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="68"/>
       <c r="F24" s="68"/>
@@ -7516,7 +7522,7 @@
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
       <c r="K24" s="80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L24" s="80"/>
       <c r="M24" s="14"/>
@@ -7561,11 +7567,11 @@
     </row>
     <row r="26" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="91"/>
       <c r="D26" s="67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="68"/>
       <c r="F26" s="68"/>
@@ -7593,7 +7599,7 @@
       <c r="B27" s="92"/>
       <c r="C27" s="93"/>
       <c r="D27" s="67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="68"/>
       <c r="F27" s="68"/>
@@ -7602,7 +7608,7 @@
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
       <c r="K27" s="54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="14"/>
@@ -7623,7 +7629,7 @@
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
@@ -7675,11 +7681,11 @@
     </row>
     <row r="30" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="89"/>
       <c r="D30" s="67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E30" s="68"/>
       <c r="F30" s="68"/>
@@ -7731,11 +7737,11 @@
     </row>
     <row r="32" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="90" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" s="91"/>
       <c r="D32" s="54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E32" s="85"/>
       <c r="F32" s="85"/>
@@ -7744,7 +7750,7 @@
       <c r="I32" s="85"/>
       <c r="J32" s="55"/>
       <c r="K32" s="54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="14"/>
@@ -7765,7 +7771,7 @@
       <c r="B33" s="92"/>
       <c r="C33" s="93"/>
       <c r="D33" s="54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
@@ -7774,7 +7780,7 @@
       <c r="I33" s="85"/>
       <c r="J33" s="55"/>
       <c r="K33" s="54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="14"/>
@@ -7795,7 +7801,7 @@
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
       <c r="D34" s="54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85"/>
@@ -7804,7 +7810,7 @@
       <c r="I34" s="85"/>
       <c r="J34" s="55"/>
       <c r="K34" s="54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L34" s="55"/>
       <c r="M34" s="14"/>
@@ -7825,7 +7831,7 @@
       <c r="B35" s="94"/>
       <c r="C35" s="95"/>
       <c r="D35" s="54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
@@ -7834,7 +7840,7 @@
       <c r="I35" s="85"/>
       <c r="J35" s="55"/>
       <c r="K35" s="86" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L35" s="87"/>
       <c r="M35" s="14"/>
@@ -7879,11 +7885,11 @@
     </row>
     <row r="37" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="89"/>
       <c r="D37" s="54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E37" s="85"/>
       <c r="F37" s="85"/>
@@ -7935,11 +7941,11 @@
     </row>
     <row r="39" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" s="85"/>
       <c r="F39" s="85"/>
@@ -7965,11 +7971,11 @@
     </row>
     <row r="40" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="88" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="89"/>
       <c r="D40" s="54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
@@ -7995,7 +8001,7 @@
     </row>
     <row r="41" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
@@ -8180,33 +8186,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="108" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="108"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="108" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="108"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -8216,13 +8222,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="105" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -8236,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -8250,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -8264,7 +8270,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -8278,7 +8284,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8292,7 +8298,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -8303,7 +8309,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="107"/>
       <c r="C14" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -8328,7 +8334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66582DB3-4332-4031-A5AC-79EB75BE64D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/doc/スケジュール.xlsx
+++ b/doc/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A0557-940D-48E7-AD54-A783B852778C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF2B13-5910-4312-9AB3-389C46DFCA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0F83651E-F0A7-4F2E-8B29-A7609FE7CEED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F83651E-F0A7-4F2E-8B29-A7609FE7CEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>◆スケジュール</t>
     <phoneticPr fontId="2"/>
@@ -900,16 +900,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>資料作成</t>
-    <rPh sb="0" eb="2">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>制作(Viewの部分を作成　おおまかなレイアウトの作成)</t>
     <rPh sb="0" eb="2">
       <t>セイサク</t>
@@ -971,10 +961,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>edit.blade.php を調整(完成)　genruTable Seeder作成完了 gerusTableにカラム1つ追加</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1064,6 +1050,25 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加機能完成、開発ALLUP ,発表資料作成</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ハッピョウシリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1552,232 +1557,232 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,15 +1906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3307976</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>5435188</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3307976</xdr:colOff>
+      <xdr:colOff>5435188</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>203611</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1924,8 +1929,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5585011" y="8166846"/>
-          <a:ext cx="0" cy="941295"/>
+          <a:off x="7709982" y="7627059"/>
+          <a:ext cx="0" cy="1328346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1954,15 +1959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3523129</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>5523267</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>73735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6051176</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69141</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1977,8 +1982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800164" y="8220635"/>
-          <a:ext cx="2528047" cy="331694"/>
+          <a:off x="7798061" y="8153176"/>
+          <a:ext cx="1112521" cy="339873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2014,7 +2019,134 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レイアウト微調整、機能追加</a:t>
+            <a:t>追加機能対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3261247</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3261247</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBBCA66-C49C-4228-ABA1-FB3C9406C16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536041" y="6069441"/>
+          <a:ext cx="0" cy="463588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3339353</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4345978</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79ACF14-6FBE-41F4-865F-50AF01403E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5614147" y="6114938"/>
+          <a:ext cx="1006625" cy="337968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>周り完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6464,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC0688-24E0-415E-A615-5B31EE133137}">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6568,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -6585,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -6668,7 +6800,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -6696,7 +6828,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -6710,7 +6842,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -6754,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -6769,7 +6901,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
@@ -6782,9 +6914,7 @@
       <c r="D28" s="7">
         <v>10</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="6">
@@ -6796,9 +6926,7 @@
       <c r="D29" s="7">
         <v>11</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="9">
@@ -6831,7 +6959,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
@@ -6845,7 +6973,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -6859,7 +6987,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
@@ -6872,7 +7000,7 @@
       <c r="D35" s="7">
         <v>15</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6931,7 +7059,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
@@ -6944,7 +7072,7 @@
       <c r="D41" s="7">
         <v>19</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7018,193 +7146,193 @@
     </row>
     <row r="2" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="M3" s="38" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="M3" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="85"/>
     </row>
     <row r="4" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="45" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="16"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="48" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="85"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="91"/>
     </row>
     <row r="6" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
     </row>
     <row r="9" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -7221,16 +7349,16 @@
     </row>
     <row r="12" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -7247,16 +7375,16 @@
     </row>
     <row r="13" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="25"/>
@@ -7273,16 +7401,16 @@
     </row>
     <row r="14" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="26"/>
@@ -7299,20 +7427,20 @@
     </row>
     <row r="15" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="44"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -7324,263 +7452,263 @@
       <c r="K16" s="14"/>
     </row>
     <row r="18" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="O18" s="81" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="O18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
     </row>
     <row r="19" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
     </row>
     <row r="20" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="19"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="79"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="82" t="s">
+      <c r="O20" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="84"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="63"/>
     </row>
     <row r="21" spans="2:26" s="15" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="52"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="24"/>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="55"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
     </row>
     <row r="22" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="67" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="80" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="80"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="14"/>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="55"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="33"/>
     </row>
     <row r="23" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="80" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="80"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="14"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="55"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="80" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="80"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="14"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="55"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="55"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="33"/>
     </row>
     <row r="26" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="67" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
@@ -7596,21 +7724,21 @@
       <c r="Z26" s="14"/>
     </row>
     <row r="27" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="67" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="54" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -7626,19 +7754,19 @@
       <c r="Z27" s="14"/>
     </row>
     <row r="28" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="67" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -7654,18 +7782,18 @@
       <c r="Z28" s="14"/>
     </row>
     <row r="29" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="66"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -7680,21 +7808,21 @@
       <c r="Z29" s="14"/>
     </row>
     <row r="30" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="67" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -7710,18 +7838,18 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="66"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -7736,23 +7864,23 @@
       <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="54" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="55"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -7768,21 +7896,21 @@
       <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="54" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="54" t="s">
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="55"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -7798,21 +7926,21 @@
       <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="54" t="s">
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="55"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -7828,21 +7956,21 @@
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="54" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="86" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="87"/>
+      <c r="L35" s="59"/>
       <c r="M35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -7858,18 +7986,18 @@
       <c r="Z35" s="14"/>
     </row>
     <row r="36" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="98"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
@@ -7884,21 +8012,21 @@
       <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
       <c r="M37" s="14"/>
       <c r="O37" s="18"/>
       <c r="P37" s="14"/>
@@ -7914,18 +8042,18 @@
       <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -7940,21 +8068,21 @@
       <c r="Z38" s="14"/>
     </row>
     <row r="39" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="54" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
@@ -7970,21 +8098,21 @@
       <c r="Z39" s="14"/>
     </row>
     <row r="40" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="54" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
       <c r="M40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -8000,20 +8128,20 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="101"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -8028,18 +8156,18 @@
       <c r="Z41" s="14"/>
     </row>
     <row r="42" spans="2:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="104"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
@@ -8069,18 +8197,51 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:M42"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B36:M36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:K8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B18:M19"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="B22:C24"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O18:Z19"/>
+    <mergeCell ref="O20:Z20"/>
+    <mergeCell ref="O21:Z21"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="O23:Z23"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="O24:Z24"/>
     <mergeCell ref="O25:Z25"/>
     <mergeCell ref="D32:J32"/>
@@ -8097,51 +8258,18 @@
     <mergeCell ref="B26:C28"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="B32:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O18:Z19"/>
-    <mergeCell ref="O20:Z20"/>
-    <mergeCell ref="O21:Z21"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="O23:Z23"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B18:M19"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="B22:C24"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:K8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:M42"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8334,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66582DB3-4332-4031-A5AC-79EB75BE64D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
